--- a/spliced/walkingToRunning/2023-03-27_19-47-59/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-47-59/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8380553126335144</v>
+        <v>-1.568910002708435</v>
       </c>
       <c r="D2" t="n">
-        <v>-9.445679664611816</v>
+        <v>-8.732925415039062</v>
       </c>
       <c r="E2" t="n">
-        <v>7.571309566497803</v>
+        <v>11.35853481292725</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1870245410479254</v>
+        <v>0.7064247653999316</v>
       </c>
       <c r="G2" t="n">
-        <v>0.3489369601767703</v>
+        <v>0.3879705256011861</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.247608503714431</v>
+        <v>-1.276251717872426</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.43754243850708</v>
+        <v>0.8380553126335144</v>
       </c>
       <c r="D3" t="n">
-        <v>-12.15506172180176</v>
+        <v>-9.445679664611816</v>
       </c>
       <c r="E3" t="n">
-        <v>10.53030300140381</v>
+        <v>7.571309566497803</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9024685754388619</v>
+        <v>0.1870245410479254</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.4795440864290796</v>
+        <v>0.3489369601767703</v>
       </c>
       <c r="H3" t="n">
-        <v>-1.337974872080807</v>
+        <v>-1.247608503714431</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.872812271118164</v>
+        <v>-4.43754243850708</v>
       </c>
       <c r="D4" t="n">
-        <v>-15.58516311645508</v>
+        <v>-12.15506172180176</v>
       </c>
       <c r="E4" t="n">
-        <v>9.149867057800291</v>
+        <v>10.53030300140381</v>
       </c>
       <c r="F4" t="n">
-        <v>1.265645361188711</v>
+        <v>0.9024685754388619</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.02650926273485885</v>
+        <v>-0.4795440864290796</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.250969281353929</v>
+        <v>-1.337974872080807</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.5598046779632568</v>
+        <v>-3.872812271118164</v>
       </c>
       <c r="D5" t="n">
-        <v>-19.21427345275879</v>
+        <v>-15.58516311645508</v>
       </c>
       <c r="E5" t="n">
-        <v>13.29136562347412</v>
+        <v>9.149867057800291</v>
       </c>
       <c r="F5" t="n">
-        <v>0.4725451643394365</v>
+        <v>1.265645361188711</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.555859181179007</v>
+        <v>-0.02650926273485885</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5429685403247824</v>
+        <v>-1.250969281353929</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.957458972930908</v>
+        <v>0.5598046779632568</v>
       </c>
       <c r="D6" t="n">
-        <v>-15.63736534118652</v>
+        <v>-19.21427345275879</v>
       </c>
       <c r="E6" t="n">
-        <v>18.14484405517578</v>
+        <v>13.29136562347412</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.317748054029953</v>
+        <v>0.4725451643394365</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.8021948228632727</v>
+        <v>-0.555859181179007</v>
       </c>
       <c r="H6" t="n">
-        <v>1.26330361148426</v>
+        <v>-0.5429685403247824</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.411556243896484</v>
+        <v>2.957458972930908</v>
       </c>
       <c r="D7" t="n">
-        <v>-15.87227630615234</v>
+        <v>-15.63736534118652</v>
       </c>
       <c r="E7" t="n">
-        <v>40.7801628112793</v>
+        <v>18.14484405517578</v>
       </c>
       <c r="F7" t="n">
-        <v>-5.050464538148212</v>
+        <v>-1.317748054029953</v>
       </c>
       <c r="G7" t="n">
-        <v>-1.059499434408193</v>
+        <v>-0.8021948228632727</v>
       </c>
       <c r="H7" t="n">
-        <v>3.716064271588008</v>
+        <v>1.26330361148426</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2294394373893737</v>
+        <v>-4.411556243896484</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.447723388671877</v>
+        <v>-15.87227630615234</v>
       </c>
       <c r="E8" t="n">
-        <v>14.12417602539062</v>
+        <v>40.7801628112793</v>
       </c>
       <c r="F8" t="n">
-        <v>-4.666344698310514</v>
+        <v>-5.050464538148212</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1935651362849571</v>
+        <v>-1.059499434408193</v>
       </c>
       <c r="H8" t="n">
-        <v>3.281336202839321</v>
+        <v>3.716064271588008</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3.351289749145508</v>
+        <v>0.2294394373893737</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.712981224060059</v>
+        <v>-9.447723388671877</v>
       </c>
       <c r="E9" t="n">
-        <v>-18.65704727172852</v>
+        <v>14.12417602539062</v>
       </c>
       <c r="F9" t="n">
-        <v>-1.485492074550169</v>
+        <v>-4.666344698310514</v>
       </c>
       <c r="G9" t="n">
-        <v>4.400924332855994</v>
+        <v>0.1935651362849571</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7134351861204636</v>
+        <v>3.281336202839321</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-22.51167106628418</v>
+        <v>3.351289749145508</v>
       </c>
       <c r="D10" t="n">
-        <v>-17.20490455627441</v>
+        <v>-3.712981224060059</v>
       </c>
       <c r="E10" t="n">
-        <v>5.639435768127441</v>
+        <v>-18.65704727172852</v>
       </c>
       <c r="F10" t="n">
-        <v>6.02430862581669</v>
+        <v>-1.485492074550169</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.010787639521097</v>
+        <v>4.400924332855994</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.7682935598537959</v>
+        <v>0.7134351861204636</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>14.83362007141113</v>
+        <v>-22.51167106628418</v>
       </c>
       <c r="D11" t="n">
-        <v>-49.96879959106445</v>
+        <v>-17.20490455627441</v>
       </c>
       <c r="E11" t="n">
-        <v>43.1571044921875</v>
+        <v>5.639435768127441</v>
       </c>
       <c r="F11" t="n">
-        <v>7.513556744241527</v>
+        <v>6.02430862581669</v>
       </c>
       <c r="G11" t="n">
-        <v>-5.51748779219422</v>
+        <v>-4.010787639521097</v>
       </c>
       <c r="H11" t="n">
-        <v>-5.36804590128399</v>
+        <v>-0.7682935598537959</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-8.106056213378906</v>
+        <v>14.83362007141113</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.839672088623047</v>
+        <v>-49.96879959106445</v>
       </c>
       <c r="E12" t="n">
-        <v>18.68710708618164</v>
+        <v>43.1571044921875</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1737358194923093</v>
+        <v>7.513556744241527</v>
       </c>
       <c r="G12" t="n">
-        <v>-1.388084953811616</v>
+        <v>-5.51748779219422</v>
       </c>
       <c r="H12" t="n">
-        <v>-5.017628220737366</v>
+        <v>-5.36804590128399</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>7.08396577835083</v>
+        <v>-8.106056213378906</v>
       </c>
       <c r="D13" t="n">
-        <v>-45.43311309814453</v>
+        <v>-6.839672088623047</v>
       </c>
       <c r="E13" t="n">
-        <v>57.45177841186523</v>
+        <v>18.68710708618164</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.916927281975134</v>
+        <v>0.1737358194923093</v>
       </c>
       <c r="G13" t="n">
-        <v>2.897614721114258</v>
+        <v>-1.388084953811616</v>
       </c>
       <c r="H13" t="n">
-        <v>3.572245300118667</v>
+        <v>-5.017628220737366</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-54.06974029541016</v>
+        <v>7.08396577835083</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.343055725097656</v>
+        <v>-45.43311309814453</v>
       </c>
       <c r="E14" t="n">
-        <v>-12.35771465301514</v>
+        <v>57.45177841186523</v>
       </c>
       <c r="F14" t="n">
-        <v>-6.33979143951154</v>
+        <v>-5.916927281975134</v>
       </c>
       <c r="G14" t="n">
-        <v>4.116823385209558</v>
+        <v>2.897614721114258</v>
       </c>
       <c r="H14" t="n">
-        <v>8.404371445554295</v>
+        <v>3.572245300118667</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-4.483136177062988</v>
+        <v>-54.06974029541016</v>
       </c>
       <c r="D15" t="n">
-        <v>2.244215488433838</v>
+        <v>-7.343055725097656</v>
       </c>
       <c r="E15" t="n">
-        <v>2.329180240631104</v>
+        <v>-12.35771465301514</v>
       </c>
       <c r="F15" t="n">
-        <v>2.320760005621735</v>
+        <v>-6.33979143951154</v>
       </c>
       <c r="G15" t="n">
-        <v>6.510529300283205</v>
+        <v>4.116823385209558</v>
       </c>
       <c r="H15" t="n">
-        <v>-2.850896300398263</v>
+        <v>8.404371445554295</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-11.29128932952881</v>
+        <v>-4.483136177062988</v>
       </c>
       <c r="D16" t="n">
-        <v>-18.83548355102539</v>
+        <v>2.244215488433838</v>
       </c>
       <c r="E16" t="n">
-        <v>14.72807312011719</v>
+        <v>2.329180240631104</v>
       </c>
       <c r="F16" t="n">
-        <v>3.378399950598675</v>
+        <v>2.320760005621735</v>
       </c>
       <c r="G16" t="n">
-        <v>-4.715870903228135</v>
+        <v>6.510529300283205</v>
       </c>
       <c r="H16" t="n">
-        <v>4.009312114134707</v>
+        <v>-2.850896300398263</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>14.46921157836914</v>
+        <v>-11.29128932952881</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.267506122589111</v>
+        <v>-18.83548355102539</v>
       </c>
       <c r="E17" t="n">
-        <v>42.03435516357422</v>
+        <v>14.72807312011719</v>
       </c>
       <c r="F17" t="n">
-        <v>7.04013035382111</v>
+        <v>3.378399950598675</v>
       </c>
       <c r="G17" t="n">
-        <v>-4.891193592608883</v>
+        <v>-4.715870903228135</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.017571782097598</v>
+        <v>4.009312114134707</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-6.320694923400879</v>
+        <v>14.46921157836914</v>
       </c>
       <c r="D18" t="n">
-        <v>9.368348121643066</v>
+        <v>-1.267506122589111</v>
       </c>
       <c r="E18" t="n">
-        <v>17.8954906463623</v>
+        <v>42.03435516357422</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5842141112700977</v>
+        <v>7.04013035382111</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8455637893095418</v>
+        <v>-4.891193592608883</v>
       </c>
       <c r="H18" t="n">
-        <v>-2.365541466601665</v>
+        <v>-4.017571782097598</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>42.09825134277344</v>
+        <v>-6.320694923400879</v>
       </c>
       <c r="D19" t="n">
-        <v>-44.42953491210938</v>
+        <v>9.368348121643066</v>
       </c>
       <c r="E19" t="n">
-        <v>46.48635864257812</v>
+        <v>17.8954906463623</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.682129506532303</v>
+        <v>0.5842141112700977</v>
       </c>
       <c r="G19" t="n">
-        <v>2.482550906650994</v>
+        <v>0.8455637893095418</v>
       </c>
       <c r="H19" t="n">
-        <v>0.6109670527695865</v>
+        <v>-2.365541466601665</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-29.51584625244141</v>
+        <v>42.09825134277344</v>
       </c>
       <c r="D20" t="n">
-        <v>29.9203052520752</v>
+        <v>-44.42953491210938</v>
       </c>
       <c r="E20" t="n">
-        <v>-9.463851928710938</v>
+        <v>46.48635864257812</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.043597400491021</v>
+        <v>-3.682129506532303</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.209260378997344</v>
+        <v>2.482550906650994</v>
       </c>
       <c r="H20" t="n">
-        <v>-3.783989848219226</v>
+        <v>0.6109670527695865</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-29.51584625244141</v>
+      </c>
+      <c r="D21" t="n">
+        <v>29.9203052520752</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-9.463851928710938</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-4.043597400491021</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-7.209260378997344</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-3.783989848219226</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>-22.83065795898437</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>-3.292042732238769</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>-1.122726440429688</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F22" t="n">
         <v>2.78724845290788</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G22" t="n">
         <v>-4.405640950662791</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H22" t="n">
         <v>8.337313574809855</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>18.49324798583984</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-80.07238006591797</v>
+      </c>
+      <c r="E23" t="n">
+        <v>68.10049438476562</v>
+      </c>
+      <c r="F23" t="n">
+        <v>3.552849229822288</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-5.358195619534956</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.1442216574237578</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-9.736778259277344</v>
+      </c>
+      <c r="D24" t="n">
+        <v>7.034156322479248</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9.938852310180664</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4.79510967652812</v>
+      </c>
+      <c r="G24" t="n">
+        <v>16.44486069921317</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-4.148945381193625</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>53.70849227905273</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-16.30745315551758</v>
+      </c>
+      <c r="E25" t="n">
+        <v>39.18264770507812</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.9187659382214614</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.2956210344576297</v>
+      </c>
+      <c r="H25" t="n">
+        <v>3.151463126168018</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-80.71715545654297</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-15.45442008972168</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-28.87823677062988</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-5.69272972968636</v>
+      </c>
+      <c r="G26" t="n">
+        <v>3.907055351334684</v>
+      </c>
+      <c r="H26" t="n">
+        <v>4.745034019354134</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>23.98992347717285</v>
+      </c>
+      <c r="D27" t="n">
+        <v>5.58967399597168</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-7.651249885559082</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.1373755151245123</v>
+      </c>
+      <c r="G27" t="n">
+        <v>11.3405332758948</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-3.450026544822681</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>0.3348398208618164</v>
+      </c>
+      <c r="D28" t="n">
+        <v>-21.52296257019043</v>
+      </c>
+      <c r="E28" t="n">
+        <v>16.69417762756348</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-1.20526529810765</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-4.696971940510186</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.208450563062909</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>3.726076126098633</v>
+      </c>
+      <c r="D29" t="n">
+        <v>2.594820261001587</v>
+      </c>
+      <c r="E29" t="n">
+        <v>41.84358978271485</v>
+      </c>
+      <c r="F29" t="n">
+        <v>8.444541233142751</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-2.498347297840359</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-2.655560967885902</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>8.552176475524902</v>
+      </c>
+      <c r="D30" t="n">
+        <v>7.943446636199951</v>
+      </c>
+      <c r="E30" t="n">
+        <v>19.50382232666016</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.723370986541445</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.8442579066087497</v>
+      </c>
+      <c r="H30" t="n">
+        <v>-2.731481316125937</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>28.44747161865234</v>
+      </c>
+      <c r="D31" t="n">
+        <v>-58.03325653076172</v>
+      </c>
+      <c r="E31" t="n">
+        <v>40.07803344726562</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-3.363093618511545</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.143067340257809</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.45013582887988</v>
       </c>
     </row>
   </sheetData>
